--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_25_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15884.03728584331</v>
+        <v>-24188.93249349772</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11715962.26448288</v>
+        <v>11715962.26448287</v>
       </c>
     </row>
     <row r="9">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>274.0271934869243</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>273.6967862532997</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.52738940623971</v>
+        <v>83.52738940623969</v>
       </c>
       <c r="H12" t="n">
         <v>31.62322353306971</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426363</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>131.3576479578671</v>
+        <v>112.0624184139042</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>160.1860887621933</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>253.5999082581247</v>
       </c>
     </row>
     <row r="15">
@@ -1739,10 +1739,10 @@
         <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
-        <v>124.830639573104</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U15" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V15" t="n">
         <v>197.1263427586206</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>63.96000637998023</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>31.4020839487533</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>259.4434733762534</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>16.4831353159883</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1909,10 +1909,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -1979,7 +1979,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5071388043582</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V18" t="n">
         <v>197.1263427586206</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>33.06262300713378</v>
       </c>
       <c r="W19" t="n">
-        <v>67.18009772487038</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2095,10 +2095,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>192.7443116694115</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>65.4570982192799</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>37.69870921092682</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>77.2631576478591</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>109.5540470185014</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>167.4490654225681</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>31.40208394875353</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>146.7083534598064</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>260.8239077163732</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>151.3796653155406</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>5.033780699103743</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>65.40693724789118</v>
       </c>
     </row>
     <row r="29">
@@ -2800,13 +2800,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>328.4254630523702</v>
       </c>
       <c r="G29" t="n">
-        <v>116.6395830120782</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T30" t="n">
         <v>124.8306395731037</v>
@@ -2930,7 +2930,7 @@
         <v>174.5071388043578</v>
       </c>
       <c r="V30" t="n">
-        <v>197.1263427586206</v>
+        <v>197.1263427586207</v>
       </c>
       <c r="W30" t="n">
         <v>183.4695267241379</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>101.6635456895364</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.51516921304759</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3037,7 +3037,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>143.4254984568486</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>63.55046334985471</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.17482029426385</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>99.39993757081399</v>
+        <v>5.033780699103757</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3277,13 +3277,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>169.0012459373935</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>116.6395830120786</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H36" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306969</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
-        <v>124.8306395731044</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U36" t="n">
         <v>174.5071388043578</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>88.10971209982762</v>
       </c>
       <c r="T37" t="n">
-        <v>5.033780699103863</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>54.91274684145228</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3511,16 +3511,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>141.8733179420228</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>58.01571709145511</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>5.033780699103638</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3745,13 +3745,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>214.2309914784211</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.6157531058532</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
         <v>124.8306395731037</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
@@ -3909,13 +3909,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>130.2917056056574</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>47.95240000343482</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3985,13 +3985,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>158.2534696142553</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>36.93734129079046</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144772</v>
+        <v>62.73221268213738</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>50.38169129341337</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1316.393772536738</v>
+        <v>1021.590677532124</v>
       </c>
       <c r="C11" t="n">
-        <v>1316.393772536738</v>
+        <v>1021.590677532124</v>
       </c>
       <c r="D11" t="n">
-        <v>880.4839877111824</v>
+        <v>1021.590677532124</v>
       </c>
       <c r="E11" t="n">
-        <v>446.7092428694776</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F11" t="n">
-        <v>446.7092428694776</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
@@ -5044,10 +5044,10 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792596</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X11" t="n">
-        <v>1316.393772536738</v>
+        <v>1429.87680123247</v>
       </c>
       <c r="Y11" t="n">
-        <v>1316.393772536738</v>
+        <v>1021.590677532124</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D12" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>730.8830127630991</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>765.0997489345752</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>858.9930882810423</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R12" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S12" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T12" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U12" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V12" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1517.87440598441</v>
+        <v>389.7915983856758</v>
       </c>
       <c r="C13" t="n">
-        <v>1517.87440598441</v>
+        <v>389.7915983856758</v>
       </c>
       <c r="D13" t="n">
-        <v>1517.87440598441</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E13" t="n">
-        <v>1517.87440598441</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M13" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N13" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T13" t="n">
-        <v>2215.901038951971</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U13" t="n">
-        <v>1937.514407000714</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V13" t="n">
-        <v>1650.558898871144</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="W13" t="n">
-        <v>1517.87440598441</v>
+        <v>389.7915983856758</v>
       </c>
       <c r="X13" t="n">
-        <v>1517.87440598441</v>
+        <v>389.7915983856758</v>
       </c>
       <c r="Y13" t="n">
-        <v>1517.87440598441</v>
+        <v>389.7915983856758</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>752.8378878305998</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C14" t="n">
-        <v>752.8378878305998</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D14" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E14" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001353</v>
@@ -5281,19 +5281,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
         <v>2043.069798152528</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2198.523447384915</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U14" t="n">
-        <v>1939.452755906429</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V14" t="n">
-        <v>1576.835805840256</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W14" t="n">
-        <v>1171.980351251289</v>
+        <v>1122.013229783222</v>
       </c>
       <c r="X14" t="n">
-        <v>752.8378878305998</v>
+        <v>702.8707663625329</v>
       </c>
       <c r="Y14" t="n">
-        <v>752.8378878305998</v>
+        <v>446.7092428694776</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>930.5806015906849</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>847.1967632068465</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>762.8256627965034</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>730.8830127630996</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q15" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R15" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S15" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T15" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U15" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V15" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1517.87440598441</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="C16" t="n">
-        <v>1517.87440598441</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="D16" t="n">
-        <v>1517.87440598441</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E16" t="n">
-        <v>1517.87440598441</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N16" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T16" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U16" t="n">
-        <v>2081.94094549648</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.98543736691</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="W16" t="n">
-        <v>1763.266160650998</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="X16" t="n">
-        <v>1517.87440598441</v>
+        <v>458.2776763869463</v>
       </c>
       <c r="Y16" t="n">
-        <v>1517.87440598441</v>
+        <v>458.2776763869463</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>747.4131388869995</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="C17" t="n">
-        <v>309.2706660704228</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895474</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2343.677945815425</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2084.607254336939</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>1721.990304270765</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792597</v>
+        <v>1317.134849681798</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>1317.134849681798</v>
       </c>
       <c r="Y17" t="n">
-        <v>1173.712709371907</v>
+        <v>908.8487259814518</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>930.5806015906849</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>847.1967632068465</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>762.8256627965034</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>730.8830127630996</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R18" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S18" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T18" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U18" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V18" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="C19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
         <v>202.912315818696</v>
@@ -5700,25 +5700,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T19" t="n">
-        <v>647.4124989156879</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U19" t="n">
-        <v>647.4124989156879</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V19" t="n">
-        <v>360.4569907861184</v>
+        <v>711.8365956204211</v>
       </c>
       <c r="W19" t="n">
-        <v>292.5983062155423</v>
+        <v>711.8365956204211</v>
       </c>
       <c r="X19" t="n">
-        <v>47.20655154895474</v>
+        <v>466.4448409538336</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.20655154895474</v>
+        <v>239.0251702679419</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1941.185114027048</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>1503.042641210471</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>1503.042641210471</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>1069.267896368766</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>641.4004667779741</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
-        <v>241.8977754574512</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W20" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X20" t="n">
-        <v>1941.185114027048</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y20" t="n">
-        <v>1941.185114027048</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="21">
@@ -5813,22 +5813,22 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,7 +5837,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
         <v>803.387703298788</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1517.87440598441</v>
+        <v>257.5942057533349</v>
       </c>
       <c r="C22" t="n">
-        <v>1517.87440598441</v>
+        <v>257.5942057533349</v>
       </c>
       <c r="D22" t="n">
-        <v>1517.87440598441</v>
+        <v>257.5942057533349</v>
       </c>
       <c r="E22" t="n">
-        <v>1517.87440598441</v>
+        <v>257.5942057533349</v>
       </c>
       <c r="F22" t="n">
-        <v>1517.87440598441</v>
+        <v>257.5942057533349</v>
       </c>
       <c r="G22" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N22" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T22" t="n">
-        <v>2360.327577447737</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U22" t="n">
-        <v>2360.327577447737</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V22" t="n">
-        <v>2073.372069318168</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="W22" t="n">
-        <v>1801.345664904459</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="X22" t="n">
-        <v>1555.953910237872</v>
+        <v>257.5942057533349</v>
       </c>
       <c r="Y22" t="n">
-        <v>1555.953910237872</v>
+        <v>257.5942057533349</v>
       </c>
     </row>
     <row r="23">
@@ -5992,19 +5992,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M23" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P23" t="n">
         <v>2043.069798152528</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W23" t="n">
-        <v>2191.18710732393</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X23" t="n">
-        <v>2191.18710732393</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y23" t="n">
-        <v>1782.900983623584</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6074,10 +6074,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1517.87440598441</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="C25" t="n">
-        <v>1517.87440598441</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="D25" t="n">
-        <v>1517.87440598441</v>
+        <v>514.0497963063831</v>
       </c>
       <c r="E25" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F25" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G25" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N25" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>2328.608300731824</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T25" t="n">
-        <v>2328.608300731824</v>
+        <v>741.4694669922749</v>
       </c>
       <c r="U25" t="n">
-        <v>2050.221668780567</v>
+        <v>741.4694669922749</v>
       </c>
       <c r="V25" t="n">
-        <v>1763.266160650997</v>
+        <v>741.4694669922749</v>
       </c>
       <c r="W25" t="n">
-        <v>1763.266160650997</v>
+        <v>741.4694669922749</v>
       </c>
       <c r="X25" t="n">
-        <v>1517.87440598441</v>
+        <v>741.4694669922749</v>
       </c>
       <c r="Y25" t="n">
-        <v>1517.87440598441</v>
+        <v>514.0497963063831</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1303.114292011252</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="C26" t="n">
-        <v>1303.114292011252</v>
+        <v>1180.705317421392</v>
       </c>
       <c r="D26" t="n">
-        <v>1303.114292011252</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E26" t="n">
-        <v>869.3395471695476</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F26" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G26" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
         <v>1463.013992431967</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W26" t="n">
-        <v>2148.556325916849</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X26" t="n">
-        <v>1729.41386249616</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y26" t="n">
-        <v>1729.41386249616</v>
+        <v>1444.163810064193</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6311,10 +6311,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M27" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N27" t="n">
         <v>1061.861364220108</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.20655154895474</v>
+        <v>389.5262668149925</v>
       </c>
       <c r="C28" t="n">
-        <v>47.20655154895474</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="D28" t="n">
-        <v>47.20655154895474</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
@@ -6414,22 +6414,22 @@
         <v>889.6597230122813</v>
       </c>
       <c r="T28" t="n">
-        <v>889.6597230122813</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U28" t="n">
-        <v>611.2730910610244</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V28" t="n">
-        <v>324.3175829314549</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="W28" t="n">
-        <v>52.2911785177464</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="X28" t="n">
-        <v>47.20655154895474</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.20655154895474</v>
+        <v>581.3448855339797</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1900.718744241845</v>
+        <v>1652.504392483701</v>
       </c>
       <c r="C29" t="n">
-        <v>1462.576271425268</v>
+        <v>1214.361919667124</v>
       </c>
       <c r="D29" t="n">
-        <v>1026.666486599713</v>
+        <v>778.4521348415687</v>
       </c>
       <c r="E29" t="n">
-        <v>592.8917417580078</v>
+        <v>778.4521348415687</v>
       </c>
       <c r="F29" t="n">
-        <v>165.0243121672156</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6496,19 +6496,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V29" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W29" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X29" t="n">
-        <v>1900.718744241845</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y29" t="n">
-        <v>1900.718744241845</v>
+        <v>1652.504392483701</v>
       </c>
     </row>
     <row r="30">
@@ -6521,43 +6521,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M30" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P30" t="n">
         <v>1488.088567599445</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1517.87440598441</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C31" t="n">
-        <v>1517.87440598441</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D31" t="n">
-        <v>1517.87440598441</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E31" t="n">
-        <v>1517.87440598441</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F31" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G31" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H31" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N31" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O31" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P31" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R31" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>2325.46377016183</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T31" t="n">
-        <v>2083.216546065237</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U31" t="n">
-        <v>1804.82991411398</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V31" t="n">
-        <v>1517.87440598441</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W31" t="n">
-        <v>1517.87440598441</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X31" t="n">
-        <v>1517.87440598441</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="Y31" t="n">
-        <v>1517.87440598441</v>
+        <v>662.2400523263896</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1066.13305005659</v>
+        <v>1624.755105488881</v>
       </c>
       <c r="C32" t="n">
-        <v>627.9905772400139</v>
+        <v>1186.612632672305</v>
       </c>
       <c r="D32" t="n">
-        <v>192.0807924144584</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E32" t="n">
-        <v>192.0807924144584</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F32" t="n">
-        <v>192.0807924144584</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G32" t="n">
-        <v>192.0807924144584</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
         <v>276.0532770435807</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
         <v>805.4408022867025</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6730,22 +6730,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V32" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W32" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X32" t="n">
-        <v>1900.718744241845</v>
+        <v>1688.947492710957</v>
       </c>
       <c r="Y32" t="n">
-        <v>1492.432620541498</v>
+        <v>1624.755105488881</v>
       </c>
     </row>
     <row r="33">
@@ -6758,37 +6758,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M33" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N33" t="n">
         <v>1061.861364220108</v>
@@ -6800,10 +6800,10 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>1676.651116233593</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
         <v>1632.030085633326</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C34" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D34" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N34" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O34" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P34" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q34" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R34" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T34" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U34" t="n">
-        <v>611.2730910610246</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V34" t="n">
-        <v>324.3175829314551</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W34" t="n">
-        <v>324.3175829314551</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="X34" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="Y34" t="n">
-        <v>223.9136055871985</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1900.718744241845</v>
+        <v>1525.741883262482</v>
       </c>
       <c r="C35" t="n">
-        <v>1462.576271425269</v>
+        <v>1087.599410445906</v>
       </c>
       <c r="D35" t="n">
-        <v>1026.666486599713</v>
+        <v>651.6896256203499</v>
       </c>
       <c r="E35" t="n">
-        <v>592.8917417580083</v>
+        <v>217.9148807786451</v>
       </c>
       <c r="F35" t="n">
-        <v>165.024312167216</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G35" t="n">
-        <v>165.024312167216</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435807</v>
+        <v>276.053277043581</v>
       </c>
       <c r="K35" t="n">
         <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6955,34 +6955,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W35" t="n">
-        <v>2319.861207662535</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X35" t="n">
-        <v>1900.718744241845</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y35" t="n">
-        <v>1900.718744241845</v>
+        <v>1952.04145374739</v>
       </c>
     </row>
     <row r="36">
@@ -6995,37 +6995,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987882</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7037,13 +7037,13 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
-        <v>1676.651116233593</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S36" t="n">
-        <v>1632.030085633327</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T36" t="n">
         <v>1505.938530508979</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.20655154895475</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="C37" t="n">
-        <v>47.20655154895475</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="D37" t="n">
-        <v>47.20655154895475</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E37" t="n">
-        <v>47.20655154895475</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895475</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N37" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O37" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P37" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q37" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R37" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S37" t="n">
-        <v>889.6597230122816</v>
+        <v>800.6600138205363</v>
       </c>
       <c r="T37" t="n">
-        <v>884.5750960434898</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="U37" t="n">
-        <v>606.1884640922327</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="V37" t="n">
-        <v>319.2329559626632</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="W37" t="n">
-        <v>47.20655154895475</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="X37" t="n">
-        <v>47.20655154895475</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.20655154895475</v>
+        <v>558.4127897239429</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1492.432620541498</v>
+        <v>2052.622535079674</v>
       </c>
       <c r="C38" t="n">
-        <v>1054.290147724922</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D38" t="n">
-        <v>618.380362899366</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E38" t="n">
-        <v>618.380362899366</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F38" t="n">
-        <v>190.5129333085737</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W38" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X38" t="n">
-        <v>1900.718744241845</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y38" t="n">
-        <v>1492.432620541498</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="39">
@@ -7232,43 +7232,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668975</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1517.87440598441</v>
+        <v>275.5662897340307</v>
       </c>
       <c r="C40" t="n">
-        <v>1517.87440598441</v>
+        <v>275.5662897340307</v>
       </c>
       <c r="D40" t="n">
-        <v>1517.87440598441</v>
+        <v>275.5662897340307</v>
       </c>
       <c r="E40" t="n">
-        <v>1517.87440598441</v>
+        <v>105.808285984768</v>
       </c>
       <c r="F40" t="n">
-        <v>1517.87440598441</v>
+        <v>105.808285984768</v>
       </c>
       <c r="G40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>1928.055364210979</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N40" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T40" t="n">
-        <v>2360.327577447737</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U40" t="n">
-        <v>2081.94094549648</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.98543736691</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="W40" t="n">
-        <v>1522.959032953202</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="X40" t="n">
-        <v>1517.87440598441</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="Y40" t="n">
-        <v>1517.87440598441</v>
+        <v>275.5662897340307</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>485.3490243655314</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
         <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7426,37 +7426,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2143.932636560442</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>2143.932636560442</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>1739.077181971475</v>
       </c>
       <c r="X41" t="n">
-        <v>2360.327577447737</v>
+        <v>1319.934718550786</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.200554108492</v>
+        <v>911.6485948504392</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810432</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434254</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.765028813591</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021825</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847472</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>697.8411042932944</v>
+        <v>602.7042148827113</v>
       </c>
       <c r="C43" t="n">
-        <v>525.2793927765193</v>
+        <v>430.1425033659362</v>
       </c>
       <c r="D43" t="n">
-        <v>525.2793927765193</v>
+        <v>430.1425033659362</v>
       </c>
       <c r="E43" t="n">
-        <v>355.5213890272566</v>
+        <v>260.3844996166735</v>
       </c>
       <c r="F43" t="n">
-        <v>178.8143349890128</v>
+        <v>260.3844996166735</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895475</v>
+        <v>95.64331922919192</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>326.7831174369941</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M43" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N43" t="n">
-        <v>584.8864215794131</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O43" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271744</v>
       </c>
       <c r="P43" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048579</v>
       </c>
       <c r="Q43" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355135</v>
       </c>
       <c r="R43" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="S43" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="T43" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="U43" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="V43" t="n">
-        <v>889.6597230122816</v>
+        <v>602.7042148827113</v>
       </c>
       <c r="W43" t="n">
-        <v>889.6597230122816</v>
+        <v>602.7042148827113</v>
       </c>
       <c r="X43" t="n">
-        <v>889.6597230122816</v>
+        <v>602.7042148827113</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.6597230122816</v>
+        <v>602.7042148827113</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1514.885543542141</v>
+        <v>1748.628930102402</v>
       </c>
       <c r="C44" t="n">
-        <v>1076.743070725564</v>
+        <v>1310.486457285825</v>
       </c>
       <c r="D44" t="n">
-        <v>640.8332859000084</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E44" t="n">
-        <v>207.0585410583035</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895475</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867027</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2323.017131699463</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2111.245880168575</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>2111.245880168575</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>1748.628930102402</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.327577447737</v>
+        <v>1748.628930102402</v>
       </c>
       <c r="X44" t="n">
-        <v>1941.185114027048</v>
+        <v>1748.628930102402</v>
       </c>
       <c r="Y44" t="n">
-        <v>1941.185114027048</v>
+        <v>1748.628930102402</v>
       </c>
     </row>
     <row r="45">
@@ -7706,43 +7706,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J45" t="n">
-        <v>175.3166270668975</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210677</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>407.3870791208724</v>
+        <v>617.6333185985725</v>
       </c>
       <c r="C46" t="n">
-        <v>407.3870791208724</v>
+        <v>445.0716070817974</v>
       </c>
       <c r="D46" t="n">
-        <v>407.3870791208724</v>
+        <v>445.0716070817974</v>
       </c>
       <c r="E46" t="n">
-        <v>407.3870791208724</v>
+        <v>275.3136033325347</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>275.3136033325347</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>110.5724229450531</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>326.7831174369941</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M46" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N46" t="n">
-        <v>584.8864215794131</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O46" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271744</v>
       </c>
       <c r="P46" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048579</v>
       </c>
       <c r="Q46" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355135</v>
       </c>
       <c r="R46" t="n">
-        <v>889.6597230122816</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="S46" t="n">
-        <v>745.2331845165161</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="T46" t="n">
-        <v>694.342587250442</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="U46" t="n">
-        <v>694.342587250442</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="V46" t="n">
-        <v>407.3870791208724</v>
+        <v>889.6597230122809</v>
       </c>
       <c r="W46" t="n">
-        <v>407.3870791208724</v>
+        <v>617.6333185985725</v>
       </c>
       <c r="X46" t="n">
-        <v>407.3870791208724</v>
+        <v>617.6333185985725</v>
       </c>
       <c r="Y46" t="n">
-        <v>407.3870791208724</v>
+        <v>617.6333185985725</v>
       </c>
     </row>
   </sheetData>
@@ -23263,19 +23263,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>155.4098039063634</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>141.2542525331827</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,13 +23421,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
@@ -23469,16 +23469,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>137.9484924117043</v>
+        <v>157.2437219556672</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -23500,7 +23500,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23509,10 +23509,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>49.46745025338561</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>150.6033542052184</v>
       </c>
     </row>
     <row r="15">
@@ -23658,13 +23658,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>100.2592064905123</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>237.9040564208181</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>172.1072136010465</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.5076644073176</v>
@@ -23785,10 +23785,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>193.1704036995906</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -23940,25 +23940,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>251.0233300411401</v>
       </c>
       <c r="W19" t="n">
-        <v>202.126042644701</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>74.28002427211713</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24034,7 +24034,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>349.4939405672025</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.2017233208704</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -24141,10 +24141,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>85.83061093574766</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,19 +24177,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>146.9259375451998</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>233.3578346205089</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24372,16 +24372,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>62.46433369811443</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>111.5801891620543</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>93.11639839582102</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>172.9371403720377</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>272.2090899793437</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
@@ -24654,22 +24654,22 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>237.9040564208179</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>159.7385367311416</v>
       </c>
     </row>
     <row r="29">
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>95.1632922425141</v>
       </c>
       <c r="G29" t="n">
-        <v>278.8680813952394</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24736,7 +24736,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -24745,10 +24745,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>88.23688684226079</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>108.4671038977602</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24906,7 +24906,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -24934,7 +24934,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>123.5988374846801</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>340.6527991134884</v>
       </c>
     </row>
     <row r="33">
@@ -25086,16 +25086,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>143.5378995491077</v>
+        <v>237.9040564208179</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>254.5875093574909</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>150.38475292945</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
@@ -25219,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25320,19 +25320,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>54.87256101098021</v>
       </c>
       <c r="T37" t="n">
-        <v>234.7909711565236</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>367.1238279386064</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>253.6343464652948</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>105.0780514921516</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144772</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>237.904056420818</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T41" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>42.24899308528006</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>254.5875093574899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>32.80206297794933</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144772</v>
+        <v>83.06822001104244</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811442</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>265.335285680629</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>3.124364796560542</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,13 +26025,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>68.28840733233989</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>189.4430605622141</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>242.9378371199217</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>356556.3948348163</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>356556.3948348164</v>
+        <v>356556.3948348165</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>356556.3948348166</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
     <row r="16">
@@ -26325,10 +26325,10 @@
         <v>132834.7353306179</v>
       </c>
       <c r="F2" t="n">
-        <v>132834.735330618</v>
+        <v>132834.7353306179</v>
       </c>
       <c r="G2" t="n">
-        <v>132834.735330618</v>
+        <v>132834.7353306179</v>
       </c>
       <c r="H2" t="n">
         <v>132834.7353306179</v>
@@ -26346,7 +26346,7 @@
         <v>132834.7353306179</v>
       </c>
       <c r="M2" t="n">
-        <v>132834.735330618</v>
+        <v>132834.7353306179</v>
       </c>
       <c r="N2" t="n">
         <v>132834.7353306179</v>
@@ -26355,7 +26355,7 @@
         <v>132834.7353306179</v>
       </c>
       <c r="P2" t="n">
-        <v>132834.735330618</v>
+        <v>132834.7353306179</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025715</v>
+        <v>147050.7684025714</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,10 +26429,10 @@
         <v>414.2905444231689</v>
       </c>
       <c r="F4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="G4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="H4" t="n">
         <v>414.2905444231689</v>
@@ -26441,25 +26441,25 @@
         <v>414.2905444231689</v>
       </c>
       <c r="J4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="K4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="L4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="M4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="N4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="O4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
     </row>
     <row r="5">
@@ -26481,37 +26481,37 @@
         <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.0812096378</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-464765.8374141188</v>
+        <v>-465407.0755278941</v>
       </c>
       <c r="F6" t="n">
-        <v>86369.36357655698</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="G6" t="n">
-        <v>86369.36357655698</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="H6" t="n">
-        <v>86369.36357655692</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="I6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278157</v>
       </c>
       <c r="J6" t="n">
-        <v>86369.36357655695</v>
+        <v>85728.12546278157</v>
       </c>
       <c r="K6" t="n">
-        <v>86369.36357655692</v>
+        <v>85728.12546278157</v>
       </c>
       <c r="L6" t="n">
-        <v>86369.36357655695</v>
+        <v>85728.12546278157</v>
       </c>
       <c r="M6" t="n">
-        <v>-60681.40482601451</v>
+        <v>-61322.64293978989</v>
       </c>
       <c r="N6" t="n">
-        <v>86369.36357655695</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="O6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="P6" t="n">
-        <v>86369.36357655696</v>
+        <v>85728.12546278154</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.701928093221</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.701928093221</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.081894361934</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125712</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33043,19 +33043,19 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33177,31 +33177,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33210,10 +33210,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646685</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>128.7867795998885</v>
@@ -33362,19 +33362,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,31 +33414,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33447,10 +33447,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998885</v>
@@ -33599,19 +33599,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,31 +33651,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33684,10 +33684,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998885</v>
@@ -33836,19 +33836,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,43 +33888,43 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699062</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
         <v>128.7867795998885</v>
@@ -34073,19 +34073,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H41" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I43" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J43" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R43" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H44" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562285</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R46" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,22 +35406,22 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35509,10 +35509,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35664,13 +35664,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,22 +35722,22 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35746,10 +35746,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125712</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -35983,10 +35983,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,28 +36117,28 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K21" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36375,7 +36375,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -36600,7 +36600,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,13 +36609,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36755,7 +36755,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646685</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811314</v>
@@ -36928,7 +36928,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,28 +37065,28 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37250,7 +37250,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37302,28 +37302,28 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.658232706284</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -37487,7 +37487,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562285</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816035</v>
@@ -37794,7 +37794,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37803,7 +37803,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917239</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002367</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048099</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q43" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562285</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K45" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M45" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R45" t="n">
         <v>62.32672164233622</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>118.9554357048099</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q46" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
